--- a/uploads/wage/temp.xlsx
+++ b/uploads/wage/temp.xlsx
@@ -37,9 +37,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_ "/>
+    <numFmt numFmtId="177" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -76,11 +77,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="DengXian"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,7 +123,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -140,14 +141,14 @@
     <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
+    <cellStyle name="?? 11" xfId="4"/>
     <cellStyle name="?? 2" xfId="3"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="4"/>
     <cellStyle name="常规 2 2 2 2 2 3" xfId="2"/>
     <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
   </cellStyles>
@@ -454,7 +455,7 @@
   <dimension ref="A1:B62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
